--- a/SchedulingData/dynamic10/pso/scheduling1_4.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_4.xlsx
@@ -462,26 +462,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>63.1</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>25.86</v>
+        <v>26.736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>105.6</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>26.08</v>
@@ -500,154 +500,154 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63.1</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>103.6</v>
+        <v>126.82</v>
       </c>
       <c r="E4" t="n">
-        <v>23.44</v>
+        <v>23.088</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>126.82</v>
       </c>
       <c r="D5" t="n">
-        <v>76.86</v>
+        <v>179.42</v>
       </c>
       <c r="E5" t="n">
-        <v>26.984</v>
+        <v>18.468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>45.88</v>
+        <v>110.5</v>
       </c>
       <c r="E6" t="n">
-        <v>26.612</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>103.6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>170.9</v>
+        <v>49.5</v>
       </c>
       <c r="E7" t="n">
-        <v>20.32</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>170.9</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>214.7</v>
+        <v>80.84</v>
       </c>
       <c r="E8" t="n">
-        <v>17.08</v>
+        <v>25.576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>105.6</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>151.82</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>23.088</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45.88</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>117.1</v>
+        <v>68.8</v>
       </c>
       <c r="E10" t="n">
-        <v>22.58</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>117.1</v>
+        <v>49.5</v>
       </c>
       <c r="D11" t="n">
-        <v>174.7</v>
+        <v>105.86</v>
       </c>
       <c r="E11" t="n">
-        <v>17.96</v>
+        <v>24.224</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>76.86</v>
+        <v>80.84</v>
       </c>
       <c r="D12" t="n">
-        <v>130.66</v>
+        <v>134.34</v>
       </c>
       <c r="E12" t="n">
-        <v>24.224</v>
+        <v>22.336</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
       <c r="D13" t="n">
-        <v>75.84</v>
+        <v>140.02</v>
       </c>
       <c r="E13" t="n">
-        <v>25.576</v>
+        <v>21.288</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>214.7</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>274.72</v>
+        <v>131.6</v>
       </c>
       <c r="E14" t="n">
-        <v>14.168</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="15">
@@ -717,18 +717,18 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>174.7</v>
+        <v>179.42</v>
       </c>
       <c r="D15" t="n">
-        <v>224.16</v>
+        <v>228.88</v>
       </c>
       <c r="E15" t="n">
-        <v>15.144</v>
+        <v>15.652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -736,32 +736,32 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>224.16</v>
+        <v>134.34</v>
       </c>
       <c r="D16" t="n">
-        <v>285.66</v>
+        <v>185.94</v>
       </c>
       <c r="E16" t="n">
-        <v>12.624</v>
+        <v>19.816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>274.72</v>
+        <v>110.5</v>
       </c>
       <c r="D17" t="n">
-        <v>318.68</v>
+        <v>165.06</v>
       </c>
       <c r="E17" t="n">
-        <v>11.412</v>
+        <v>20.864</v>
       </c>
     </row>
     <row r="18">
@@ -774,165 +774,165 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>165.06</v>
       </c>
       <c r="D18" t="n">
-        <v>59.66</v>
+        <v>214.42</v>
       </c>
       <c r="E18" t="n">
-        <v>26.204</v>
+        <v>17.068</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>75.84</v>
+        <v>131.6</v>
       </c>
       <c r="D19" t="n">
-        <v>134.08</v>
+        <v>194.1</v>
       </c>
       <c r="E19" t="n">
-        <v>22.352</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>134.08</v>
+        <v>228.88</v>
       </c>
       <c r="D20" t="n">
-        <v>200.14</v>
+        <v>284</v>
       </c>
       <c r="E20" t="n">
-        <v>19.856</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>59.66</v>
+        <v>194.1</v>
       </c>
       <c r="D21" t="n">
-        <v>113.4</v>
+        <v>241.7</v>
       </c>
       <c r="E21" t="n">
-        <v>22.94</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>113.4</v>
+        <v>105.86</v>
       </c>
       <c r="D22" t="n">
-        <v>196</v>
+        <v>164.2</v>
       </c>
       <c r="E22" t="n">
-        <v>18.26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>285.66</v>
+        <v>241.7</v>
       </c>
       <c r="D23" t="n">
-        <v>366.52</v>
+        <v>285.04</v>
       </c>
       <c r="E23" t="n">
-        <v>9.608000000000001</v>
+        <v>11.176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>200.14</v>
+        <v>185.94</v>
       </c>
       <c r="D24" t="n">
-        <v>245.1</v>
+        <v>261.24</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>17.396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>130.66</v>
+        <v>164.2</v>
       </c>
       <c r="D25" t="n">
-        <v>182.66</v>
+        <v>224.48</v>
       </c>
       <c r="E25" t="n">
-        <v>21.624</v>
+        <v>17.612</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>245.1</v>
+        <v>284</v>
       </c>
       <c r="D26" t="n">
-        <v>305</v>
+        <v>327.96</v>
       </c>
       <c r="E26" t="n">
-        <v>12.14</v>
+        <v>9.984</v>
       </c>
     </row>
     <row r="27">
@@ -941,93 +941,93 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>305</v>
+        <v>140.02</v>
       </c>
       <c r="D27" t="n">
-        <v>368.04</v>
+        <v>212.62</v>
       </c>
       <c r="E27" t="n">
-        <v>9.436</v>
+        <v>17.148</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>182.66</v>
+        <v>212.62</v>
       </c>
       <c r="D28" t="n">
-        <v>250.06</v>
+        <v>282.52</v>
       </c>
       <c r="E28" t="n">
-        <v>17.004</v>
+        <v>12.288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>151.82</v>
+        <v>214.42</v>
       </c>
       <c r="D29" t="n">
-        <v>212.92</v>
+        <v>266.62</v>
       </c>
       <c r="E29" t="n">
-        <v>18.608</v>
+        <v>14.468</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>212.92</v>
+        <v>266.62</v>
       </c>
       <c r="D30" t="n">
-        <v>259.38</v>
+        <v>322.78</v>
       </c>
       <c r="E30" t="n">
-        <v>15.592</v>
+        <v>11.972</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>259.38</v>
+        <v>261.24</v>
       </c>
       <c r="D31" t="n">
-        <v>334.48</v>
+        <v>332.4</v>
       </c>
       <c r="E31" t="n">
-        <v>11.692</v>
+        <v>14.38</v>
       </c>
     </row>
   </sheetData>
